--- a/data/trans_orig/P14B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6D34CE-5A38-4054-ADD8-2C8385FB8A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59E71B6-5218-4BC4-977C-E0D718BB006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AA0C9F8-E62A-4040-88C0-0095D3673334}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CFDC09D-BA25-4928-B5B8-48740D99098D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="283">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -112,13 +112,13 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>48,93%</t>
+    <t>48,05%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>45,31%</t>
+    <t>46,08%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,13 +127,13 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>51,07%</t>
+    <t>51,95%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>54,69%</t>
+    <t>53,92%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -142,37 +142,37 @@
     <t>47,95%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>52,05%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -184,19 +184,19 @@
     <t>39,52%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>32,54%</t>
@@ -205,19 +205,19 @@
     <t>60,48%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -229,19 +229,19 @@
     <t>58,69%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -250,19 +250,19 @@
     <t>41,31%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -271,109 +271,103 @@
     <t>43,0%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>15,15%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -421,37 +415,37 @@
     <t>32,8%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>39,54%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>60,46%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>66,38%</t>
@@ -460,19 +454,16 @@
     <t>60,23%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>61,32%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>35,16%</t>
   </si>
   <si>
     <t>33,62%</t>
@@ -481,19 +472,16 @@
     <t>39,77%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>38,68%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>64,84%</t>
   </si>
   <si>
     <t>48,65%</t>
@@ -541,103 +529,103 @@
     <t>48,96%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>23,69%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>76,31%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>23,57%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>76,43%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
@@ -658,61 +646,61 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>8,03%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>91,0%</t>
+    <t>91,97%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>18,41%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>83,43%</t>
+    <t>81,59%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>63,4%</t>
@@ -721,19 +709,16 @@
     <t>30,81%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>22,06%</t>
   </si>
   <si>
     <t>36,6%</t>
@@ -742,169 +727,166 @@
     <t>69,19%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>77,94%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>67,22%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>34,66%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>32,78%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>68,92%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B427A4A-541E-45D8-B00C-B414BFB1EEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D209FF8-565E-44D5-AAD0-D2EF2B8B3BF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,10 +2194,10 @@
         <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2224,13 +2206,13 @@
         <v>13844</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2239,13 +2221,13 @@
         <v>16926</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2242,13 @@
         <v>4085</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2275,13 +2257,13 @@
         <v>12200</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2290,13 +2272,13 @@
         <v>16285</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2346,13 @@
         <v>6209</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -2379,13 +2361,13 @@
         <v>42276</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2394,13 +2376,13 @@
         <v>48485</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2397,13 @@
         <v>8065</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -2430,13 +2412,13 @@
         <v>52279</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -2445,13 +2427,13 @@
         <v>60344</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2489,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD276FF-60D7-485A-B694-B59D50EFBD01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53239CE-DE3E-4749-A576-D0CEB54C77D3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2668,13 +2650,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2683,13 +2665,13 @@
         <v>1085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,10 +2701,10 @@
         <v>4690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2734,10 +2716,10 @@
         <v>6737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2829,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2844,7 +2826,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2892,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2978,13 +2960,13 @@
         <v>4666</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2993,13 +2975,13 @@
         <v>6253</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3011,13 @@
         <v>9559</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -3044,13 +3026,13 @@
         <v>9559</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3100,7 @@
         <v>2048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
@@ -3133,13 +3115,13 @@
         <v>8677</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3148,13 +3130,13 @@
         <v>10724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,7 +3151,7 @@
         <v>1037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
@@ -3184,13 +3166,13 @@
         <v>5729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3199,13 +3181,13 @@
         <v>6766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3255,7 @@
         <v>1038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
@@ -3288,13 +3270,13 @@
         <v>3522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3303,13 +3285,13 @@
         <v>4559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,7 +3306,7 @@
         <v>1095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
@@ -3339,13 +3321,13 @@
         <v>9234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3354,13 +3336,13 @@
         <v>10329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3410,13 @@
         <v>4518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3443,13 +3425,13 @@
         <v>10702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3458,13 +3440,13 @@
         <v>15220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3461,13 @@
         <v>4710</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3494,13 +3476,13 @@
         <v>18246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3509,13 +3491,13 @@
         <v>22957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3565,13 @@
         <v>9191</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3598,13 +3580,13 @@
         <v>28652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3613,13 +3595,13 @@
         <v>37843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3616,13 @@
         <v>9905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -3649,13 +3631,13 @@
         <v>58222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3664,13 +3646,13 @@
         <v>68127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3708,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B414EB-24EA-49B7-8AEC-184B6ED86BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944EFF0A-5147-4ACA-A885-BF23F127D16E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,13 +3867,13 @@
         <v>2701</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3900,13 +3882,13 @@
         <v>2701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,10 +3916,10 @@
         <v>5223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3949,10 +3931,10 @@
         <v>5223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4034,13 +4016,13 @@
         <v>160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4049,13 +4031,13 @@
         <v>160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +4065,10 @@
         <v>11592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4098,10 +4080,10 @@
         <v>11592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -4170,10 +4152,10 @@
         <v>4655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -4185,13 +4167,13 @@
         <v>7006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4200,13 +4182,13 @@
         <v>11661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4203,13 @@
         <v>1169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -4236,13 +4218,13 @@
         <v>25472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -4251,13 +4233,13 @@
         <v>26641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4307,7 @@
         <v>1832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
@@ -4340,13 +4322,13 @@
         <v>12522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4355,13 +4337,13 @@
         <v>14354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4358,7 @@
         <v>1057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
@@ -4391,13 +4373,13 @@
         <v>28125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -4406,13 +4388,13 @@
         <v>29183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4462,13 @@
         <v>2694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4495,13 +4477,13 @@
         <v>5483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4510,13 +4492,13 @@
         <v>8177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4513,13 @@
         <v>5594</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4546,13 +4528,13 @@
         <v>10334</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4561,13 +4543,13 @@
         <v>15929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4617,13 @@
         <v>7330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4650,13 +4632,13 @@
         <v>12971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -4665,13 +4647,13 @@
         <v>20301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4668,13 @@
         <v>16254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -4701,13 +4683,13 @@
         <v>41862</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4716,13 +4698,13 @@
         <v>58116</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4772,13 @@
         <v>16510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4805,13 +4787,13 @@
         <v>40842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -4820,13 +4802,13 @@
         <v>57352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4823,13 @@
         <v>24075</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -4856,13 +4838,13 @@
         <v>122610</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>225</v>
@@ -4871,13 +4853,13 @@
         <v>146685</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4915,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59E71B6-5218-4BC4-977C-E0D718BB006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB549CA0-A865-4AE1-BB25-0FAC696ADC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CFDC09D-BA25-4928-B5B8-48740D99098D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4FAE17C-AC4F-4FAD-B9B5-6595125D404E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="291">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -82,7 +82,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>76,5%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,12 +91,6 @@
     <t>75,25%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -112,13 +106,13 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>48,05%</t>
+    <t>57,6%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>46,08%</t>
+    <t>46,26%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,13 +121,13 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>51,95%</t>
+    <t>42,4%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>53,92%</t>
+    <t>53,74%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -142,37 +136,37 @@
     <t>47,95%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>52,05%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -184,19 +178,19 @@
     <t>39,52%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>32,54%</t>
@@ -205,19 +199,19 @@
     <t>60,48%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -229,19 +223,19 @@
     <t>58,69%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -250,19 +244,19 @@
     <t>41,31%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -271,616 +265,646 @@
     <t>43,0%</t>
   </si>
   <si>
-    <t>84,85%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>15,15%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2016 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>71,89%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
   </si>
   <si>
     <t>66,01%</t>
@@ -1298,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D209FF8-565E-44D5-AAD0-D2EF2B8B3BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF8774-0827-4166-89D6-57B385CB00A0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1487,10 +1511,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1502,10 +1526,10 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,13 +1557,13 @@
         <v>3892</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1548,18 +1572,18 @@
         <v>3892</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1574,10 +1598,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1586,13 +1610,13 @@
         <v>1933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1601,13 +1625,13 @@
         <v>1933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1646,13 @@
         <v>959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -1637,13 +1661,13 @@
         <v>8989</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1652,13 +1676,13 @@
         <v>9947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,13 +1697,13 @@
         <v>959</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -1688,13 +1712,13 @@
         <v>10922</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1703,18 +1727,18 @@
         <v>11880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1726,13 +1750,13 @@
         <v>1030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1741,13 +1765,13 @@
         <v>13082</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1756,13 +1780,13 @@
         <v>14112</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -1792,13 +1816,13 @@
         <v>14203</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -1807,13 +1831,13 @@
         <v>14202</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1852,13 @@
         <v>1030</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -1843,13 +1867,13 @@
         <v>27285</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -1858,18 +1882,18 @@
         <v>28314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1881,13 +1905,13 @@
         <v>2097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1896,13 +1920,13 @@
         <v>6286</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1911,13 +1935,13 @@
         <v>8383</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1956,13 @@
         <v>1012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1947,13 +1971,13 @@
         <v>9619</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1962,13 +1986,13 @@
         <v>10631</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +2007,13 @@
         <v>3109</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1998,13 +2022,13 @@
         <v>15905</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -2013,18 +2037,18 @@
         <v>19014</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2039,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2051,13 +2075,13 @@
         <v>6168</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2066,13 +2090,13 @@
         <v>6168</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2111,13 @@
         <v>2009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2102,13 +2126,13 @@
         <v>4340</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2117,13 +2141,13 @@
         <v>6349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2162,13 @@
         <v>2009</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -2153,13 +2177,13 @@
         <v>10508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2168,18 +2192,18 @@
         <v>12517</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2191,13 +2215,13 @@
         <v>3082</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2206,13 +2230,13 @@
         <v>13844</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2221,13 +2245,13 @@
         <v>16926</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2266,13 @@
         <v>4085</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2293,13 +2317,13 @@
         <v>7167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -2308,13 +2332,13 @@
         <v>26044</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -2323,13 +2347,13 @@
         <v>33211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2472,13 @@
         <v>14274</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>88</v>
@@ -2463,13 +2487,13 @@
         <v>94555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -2478,13 +2502,13 @@
         <v>108829</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53239CE-DE3E-4749-A576-D0CEB54C77D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B84075-42FE-4637-B759-F861F6E22558}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2638,10 +2662,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2686,13 +2710,13 @@
         <v>2047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2707,7 +2731,7 @@
         <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -2722,7 +2746,7 @@
         <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2761,13 @@
         <v>2047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -2752,13 +2776,13 @@
         <v>5775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2767,18 +2791,18 @@
         <v>7822</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2793,10 +2817,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2808,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>120</v>
@@ -2823,7 +2847,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>121</v>
@@ -2841,13 +2865,13 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -2856,13 +2880,13 @@
         <v>10763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2871,13 +2895,13 @@
         <v>11780</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2916,13 @@
         <v>1016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -2907,13 +2931,13 @@
         <v>10763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2922,18 +2946,18 @@
         <v>11780</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2945,13 +2969,13 @@
         <v>1587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2999,10 +3023,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3047,13 +3071,13 @@
         <v>1587</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -3062,13 +3086,13 @@
         <v>14225</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3077,18 +3101,18 @@
         <v>15812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3106,7 +3130,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3136,7 +3160,7 @@
         <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3175,13 @@
         <v>1037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3166,13 +3190,13 @@
         <v>5729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3181,13 +3205,13 @@
         <v>6766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3226,13 @@
         <v>3085</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -3217,13 +3241,13 @@
         <v>14406</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -3232,18 +3256,18 @@
         <v>17490</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3255,13 +3279,13 @@
         <v>1038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3270,13 +3294,13 @@
         <v>3522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3285,13 +3309,13 @@
         <v>4559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3330,13 @@
         <v>1095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3321,13 +3345,13 @@
         <v>9234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3336,13 +3360,13 @@
         <v>10329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3381,13 @@
         <v>2133</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3372,13 +3396,13 @@
         <v>12756</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3387,18 +3411,18 @@
         <v>14888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3410,13 +3434,13 @@
         <v>4518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3425,13 +3449,13 @@
         <v>10702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3440,13 +3464,13 @@
         <v>15220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3485,13 @@
         <v>4710</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3476,13 +3500,13 @@
         <v>18246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3491,13 +3515,13 @@
         <v>22957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3536,13 @@
         <v>9228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -3527,13 +3551,13 @@
         <v>28948</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -3542,13 +3566,13 @@
         <v>38177</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3589,13 @@
         <v>9191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3580,13 +3604,13 @@
         <v>28652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3595,13 +3619,13 @@
         <v>37843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3640,13 @@
         <v>9905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -3631,13 +3655,13 @@
         <v>58222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3646,13 +3670,13 @@
         <v>68127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3691,13 @@
         <v>19096</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -3682,13 +3706,13 @@
         <v>86874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
@@ -3697,13 +3721,13 @@
         <v>105970</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944EFF0A-5147-4ACA-A885-BF23F127D16E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2BC30F-871D-470B-A15F-287350864962}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3867,13 +3891,13 @@
         <v>2701</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3882,13 +3906,13 @@
         <v>2701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3940,13 @@
         <v>5223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3931,13 +3955,13 @@
         <v>5223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3989,13 @@
         <v>7924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3980,18 +4004,18 @@
         <v>7924</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4040,13 @@
         <v>160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4031,13 +4055,13 @@
         <v>160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4089,13 @@
         <v>11592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4080,13 +4104,13 @@
         <v>11592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4138,13 @@
         <v>11752</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -4129,18 +4153,18 @@
         <v>11752</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4152,13 +4176,13 @@
         <v>4655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4167,13 +4191,13 @@
         <v>7006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4182,13 +4206,13 @@
         <v>11661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4227,13 @@
         <v>1169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -4218,13 +4242,13 @@
         <v>25472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -4233,13 +4257,13 @@
         <v>26641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4278,13 @@
         <v>5824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -4269,13 +4293,13 @@
         <v>32478</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -4284,18 +4308,18 @@
         <v>38302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4307,13 +4331,13 @@
         <v>1832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4322,13 +4346,13 @@
         <v>12522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4337,13 +4361,13 @@
         <v>14354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4382,13 @@
         <v>1057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4373,13 +4397,13 @@
         <v>28125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -4388,13 +4412,13 @@
         <v>29183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4433,13 @@
         <v>2889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
@@ -4424,13 +4448,13 @@
         <v>40647</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
@@ -4439,18 +4463,18 @@
         <v>43537</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4462,13 +4486,13 @@
         <v>2694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4477,13 +4501,13 @@
         <v>5483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4492,13 +4516,13 @@
         <v>8177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4537,13 @@
         <v>5594</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4528,13 +4552,13 @@
         <v>10334</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4543,13 +4567,13 @@
         <v>15929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4588,13 @@
         <v>8288</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4579,13 +4603,13 @@
         <v>15817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4594,18 +4618,18 @@
         <v>24106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4617,13 +4641,13 @@
         <v>7330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4632,13 +4656,13 @@
         <v>12971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -4647,13 +4671,13 @@
         <v>20301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4692,13 @@
         <v>16254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -4683,13 +4707,13 @@
         <v>41862</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4698,13 +4722,13 @@
         <v>58116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4743,13 @@
         <v>23584</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -4734,13 +4758,13 @@
         <v>54833</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>140</v>
@@ -4749,13 +4773,13 @@
         <v>78417</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4796,13 @@
         <v>16510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4787,13 +4811,13 @@
         <v>40842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -4802,13 +4826,13 @@
         <v>57352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4847,13 @@
         <v>24075</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -4838,13 +4862,13 @@
         <v>122610</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>225</v>
@@ -4853,13 +4877,13 @@
         <v>146685</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4898,13 @@
         <v>40585</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>252</v>
@@ -4889,13 +4913,13 @@
         <v>163452</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -4904,13 +4928,13 @@
         <v>204037</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
